--- a/Training.xlsx
+++ b/Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahid\Documents\GitHub\Data-Challenges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oykugercek/Documents/GitHub/Data-Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0384FB3-CC95-4937-8A72-39AE8B7BD33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E2CE5F-1E03-0048-BA7B-F8BCEE6F457C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
+    <workbookView xWindow="18060" yWindow="500" windowWidth="17660" windowHeight="21900" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name im Ordner</t>
   </si>
@@ -72,6 +70,30 @@
   </si>
   <si>
     <t>Spalte1</t>
+  </si>
+  <si>
+    <t>6.842/856/856</t>
+  </si>
+  <si>
+    <t>DC.v1i.folder</t>
+  </si>
+  <si>
+    <t>0.24842599034309387</t>
+  </si>
+  <si>
+    <t>0.9439252336448598</t>
+  </si>
+  <si>
+    <t>0.931606181204199</t>
+  </si>
+  <si>
+    <t>google/vit-base-patch16-224</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -121,33 +143,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -180,6 +188,22 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -201,8 +225,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2B1C944-4CB7-4A93-8883-92516D3D2CA9}" name="Tabelle1" displayName="Tabelle1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:L6" xr:uid="{D2B1C944-4CB7-4A93-8883-92516D3D2CA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2B1C944-4CB7-4A93-8883-92516D3D2CA9}" name="Tabelle1" displayName="Tabelle1" ref="A1:L12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:L12" xr:uid="{D2B1C944-4CB7-4A93-8883-92516D3D2CA9}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{459F32B4-D2E9-4309-90C7-C1F920F6AC62}" name="Name im Ordner"/>
     <tableColumn id="2" xr3:uid="{AB77060C-5F55-4ABE-BEF5-0CFB8EEDF19F}" name="#Train/#Test/#Valid"/>
@@ -213,9 +237,9 @@
     <tableColumn id="7" xr3:uid="{9505AE16-C47B-4DE6-8ED6-BB5A5F261B7B}" name="Epochen"/>
     <tableColumn id="8" xr3:uid="{E9AE470A-B625-4BA7-A0A3-B2DC9F74C1B3}" name="Learning-Rate"/>
     <tableColumn id="9" xr3:uid="{711D1494-7FC5-4931-8503-6720593AD3A6}" name="Spalte1"/>
-    <tableColumn id="10" xr3:uid="{ED6260E0-1B6A-446E-B4D5-1A47C515D809}" name="Loss" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{EA1F0DCC-D760-443A-8B91-7287BADA2F81}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{54648EF5-1A11-466A-8854-BEA80CF9D964}" name="F1" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{ED6260E0-1B6A-446E-B4D5-1A47C515D809}" name="Loss" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{EA1F0DCC-D760-443A-8B91-7287BADA2F81}" name="Accuracy" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{54648EF5-1A11-466A-8854-BEA80CF9D964}" name="F1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -518,23 +542,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D8B57B-656C-4CE7-9D6D-E18D68641F41}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,30 +597,91 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4">
+        <v>32710280373.831699</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oykugercek/Documents/GitHub/Data-Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E2CE5F-1E03-0048-BA7B-F8BCEE6F457C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9B8C8D-9B9F-0E4C-946B-F0A6D06C0144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18060" yWindow="500" windowWidth="17660" windowHeight="21900" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Name im Ordner</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>0.37938758730888367</t>
+  </si>
+  <si>
+    <t>0.9532710280373832</t>
+  </si>
+  <si>
+    <t>0.9447126028202978</t>
   </si>
 </sst>
 </file>
@@ -545,7 +554,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -633,10 +642,36 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4">
+        <v>934579439.25233603</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J4" s="3"/>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oykugercek/Documents/GitHub/Data-Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9B8C8D-9B9F-0E4C-946B-F0A6D06C0144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC82C521-20D9-944B-A9AC-46924DEF76CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18060" yWindow="500" windowWidth="17660" windowHeight="21900" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
+    <workbookView xWindow="14580" yWindow="720" windowWidth="21260" windowHeight="21680" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>Name im Ordner</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>0.9447126028202978</t>
+  </si>
+  <si>
+    <t>0.2559424638748169</t>
+  </si>
+  <si>
+    <t>0.947429906542056</t>
+  </si>
+  <si>
+    <t>0.9372755587146686</t>
+  </si>
+  <si>
+    <t>0.24963918328285217</t>
+  </si>
+  <si>
+    <t>0.9369158878504673</t>
+  </si>
+  <si>
+    <t>0.9199580985490133</t>
   </si>
 </sst>
 </file>
@@ -554,7 +572,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -626,19 +644,19 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
-        <v>32710280373.831699</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>38317757009.345703</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -651,6 +669,9 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -658,35 +679,113 @@
         <v>8</v>
       </c>
       <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4">
+        <v>32710280373.831699</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4">
+        <v>227414330218.06799</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="4">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4">
         <v>934579439.25233603</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J7" s="3"/>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oykugercek/Documents/GitHub/Data-Challenges/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahid\Documents\GitHub\Data-Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC82C521-20D9-944B-A9AC-46924DEF76CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36862A5B-EED2-4986-9608-4348D153F872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="720" windowWidth="21260" windowHeight="21680" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Name im Ordner</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t>0.9199580985490133</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
   </si>
 </sst>
 </file>
@@ -170,13 +188,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -252,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2B1C944-4CB7-4A93-8883-92516D3D2CA9}" name="Tabelle1" displayName="Tabelle1" ref="A1:L12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:L12" xr:uid="{D2B1C944-4CB7-4A93-8883-92516D3D2CA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2B1C944-4CB7-4A93-8883-92516D3D2CA9}" name="Tabelle1" displayName="Tabelle1" ref="B1:M12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B1:M12" xr:uid="{D2B1C944-4CB7-4A93-8883-92516D3D2CA9}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{459F32B4-D2E9-4309-90C7-C1F920F6AC62}" name="Name im Ordner"/>
     <tableColumn id="2" xr3:uid="{AB77060C-5F55-4ABE-BEF5-0CFB8EEDF19F}" name="#Train/#Test/#Valid"/>
@@ -569,253 +588,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D8B57B-656C-4CE7-9D6D-E18D68641F41}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>38317757009.345703</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>32710280373.831699</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>227414330218.06799</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>25</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>934579439.25233603</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J7" s="3"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J8" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J9" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J10" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J11" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="J12" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahid\Documents\GitHub\Data-Challenges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36862A5B-EED2-4986-9608-4348D153F872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA1D7F2-6BA7-4A49-BB30-7A201808B840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Name im Ordner</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>0.23919</t>
+  </si>
+  <si>
+    <t>0.94042</t>
+  </si>
+  <si>
+    <t>0.93239</t>
   </si>
 </sst>
 </file>
@@ -591,7 +603,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +684,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="4">
-        <v>38317757009.345703</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K2" t="s">
         <v>26</v>
@@ -710,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="I3" s="4">
-        <v>32710280373.831699</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>14</v>
@@ -748,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="I4" s="4">
-        <v>227414330218.06799</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>23</v>
@@ -785,6 +797,9 @@
       <c r="H5">
         <v>20</v>
       </c>
+      <c r="I5" s="4">
+        <v>5.0000000000000002E-5</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -812,7 +827,7 @@
         <v>25</v>
       </c>
       <c r="I6" s="4">
-        <v>934579439.25233603</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -825,9 +840,42 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K8" s="3"/>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cahid\Documents\GitHub\Data-Challenges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oykugercek/Documents/GitHub/Data-Challenges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA1D7F2-6BA7-4A49-BB30-7A201808B840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954B8DDA-07F7-B142-B145-FBDB7AD7965B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18648" windowHeight="11784" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="13860" windowHeight="11780" xr2:uid="{D9D2EEF0-7D2F-4EA2-AA26-1FD8AAF8E100}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Name im Ordner</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>0.93239</t>
+  </si>
+  <si>
+    <t>0.3662647604942322</t>
+  </si>
+  <si>
+    <t>0.9415887850467289</t>
+  </si>
+  <si>
+    <t>0.9328615116422072</t>
   </si>
 </sst>
 </file>
@@ -602,22 +611,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D8B57B-656C-4CE7-9D6D-E18D68641F41}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -658,7 +667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -696,7 +705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>31</v>
       </c>
@@ -734,7 +743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -772,7 +781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -800,8 +809,17 @@
       <c r="I5" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -839,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
@@ -877,27 +895,27 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
